--- a/Report/Issues.xlsx
+++ b/Report/Issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/navakanthnavi/Downloads/Emperia/assign/front-end-qa-assessment/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938F12ED-F640-124F-88CF-8793975784BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB672DA1-4B7B-4440-94BD-CB6C73B04B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16580" activeTab="1" xr2:uid="{38147E4C-BEA2-C24B-BD2C-F0E7D1582435}"/>
   </bookViews>
@@ -1019,7 +1019,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Report/Issues.xlsx
+++ b/Report/Issues.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/navakanthnavi/Downloads/Emperia/assign/front-end-qa-assessment/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB672DA1-4B7B-4440-94BD-CB6C73B04B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D0B263-778A-A140-828E-0154516D1433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16580" activeTab="1" xr2:uid="{38147E4C-BEA2-C24B-BD2C-F0E7D1582435}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="123">
   <si>
     <t>Issue ID</t>
   </si>
@@ -467,6 +467,9 @@
   </si>
   <si>
     <t>Issue-21</t>
+  </si>
+  <si>
+    <t>Jan-10th 5:40 PM</t>
   </si>
 </sst>
 </file>
@@ -591,7 +594,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -879,7 +882,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1018,8 +1021,8 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1406,6 +1409,9 @@
       <c r="F17" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -1423,6 +1429,9 @@
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G18" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -1440,6 +1449,9 @@
       <c r="F19" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G19" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -1457,6 +1469,9 @@
       <c r="F20" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G20" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="H20" s="2" t="s">
         <v>69</v>
       </c>
@@ -1476,6 +1491,9 @@
       </c>
       <c r="F21" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="H21" s="2"/>
     </row>
